--- a/data/trans_dic/P6-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha experimentado cambio de convivientes en sus viviendas</t>
+          <t>Población que ha experimentado cambio de convivientes en sus viviendas (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -661,17 +662,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,17 +682,17 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,17 +702,17 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>15,25%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 11,06</t>
+          <t>3,54; 11,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 13,91</t>
+          <t>2,1; 10,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,66; 22,36</t>
+          <t>5,89; 18,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,55; 21,17</t>
+          <t>5,54; 18,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,55; 15,93</t>
+          <t>6,46; 15,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,31; 22,29</t>
+          <t>6,98; 18,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,11; 35,36</t>
+          <t>10,28; 21,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,02; 34,4</t>
+          <t>13,4; 26,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 11,7</t>
+          <t>5,46; 11,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 15,43</t>
+          <t>5,03; 11,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,58; 25,62</t>
+          <t>9,5; 18,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,96; 24,14</t>
+          <t>11,38; 20,64</t>
         </is>
       </c>
     </row>
@@ -801,17 +802,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -821,37 +822,37 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>13,43%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,67; 14,11</t>
+          <t>5,41; 13,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,51; 24,82</t>
+          <t>7,88; 21,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,22; 27,68</t>
+          <t>7,58; 17,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,0; 25,51</t>
+          <t>9,39; 19,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 9,89</t>
+          <t>3,24; 9,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,44; 17,09</t>
+          <t>5,25; 13,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,26; 22,01</t>
+          <t>5,03; 12,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,05; 22,38</t>
+          <t>8,87; 18,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,57</t>
+          <t>5,34; 10,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,66; 19,57</t>
+          <t>7,76; 16,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,67; 22,52</t>
+          <t>7,31; 13,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,09; 21,93</t>
+          <t>10,45; 17,01</t>
         </is>
       </c>
     </row>
@@ -941,17 +942,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,17 +962,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -981,17 +982,17 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>6,26%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 6,95</t>
+          <t>1,98; 6,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 24,89</t>
+          <t>2,95; 8,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,14; 17,75</t>
+          <t>4,25; 10,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,7; 14,21</t>
+          <t>4,06; 10,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 8,76</t>
+          <t>3,59; 9,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 10,32</t>
+          <t>3,33; 8,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 10,52</t>
+          <t>2,38; 6,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 10,95</t>
+          <t>3,7; 8,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,8</t>
+          <t>3,33; 6,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 16,19</t>
+          <t>3,75; 7,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 12,9</t>
+          <t>3,75; 7,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 11,06</t>
+          <t>4,62; 8,67</t>
         </is>
       </c>
     </row>
@@ -1081,17 +1082,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,17 +1102,17 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,17 +1122,17 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>8,25%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,32</t>
+          <t>3,3; 8,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 10,81</t>
+          <t>3,38; 8,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,98; 13,21</t>
+          <t>3,61; 8,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 12,69</t>
+          <t>4,23; 9,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,44; 16,43</t>
+          <t>9,74; 16,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,54; 17,53</t>
+          <t>7,83; 14,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,16; 18,95</t>
+          <t>6,9; 12,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,54; 16,07</t>
+          <t>7,31; 13,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 11,65</t>
+          <t>7,05; 11,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,51; 12,73</t>
+          <t>6,14; 10,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,78; 14,54</t>
+          <t>5,86; 9,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,22; 13,15</t>
+          <t>6,35; 10,33</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1222,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1241,17 +1242,17 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1261,17 +1262,17 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>9,61%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,59; 12,81</t>
+          <t>5,72; 12,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,45; 18,09</t>
+          <t>5,87; 14,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,03; 13,08</t>
+          <t>3,18; 8,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,02; 12,49</t>
+          <t>4,1; 10,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,72; 14,51</t>
+          <t>6,86; 14,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,06; 18,84</t>
+          <t>6,73; 15,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,22; 24,93</t>
+          <t>6,82; 14,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,26; 21,56</t>
+          <t>8,83; 17,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,1; 12,26</t>
+          <t>6,85; 12,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,22; 16,42</t>
+          <t>6,99; 12,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,24; 16,89</t>
+          <t>5,84; 10,54</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,02; 15,0</t>
+          <t>7,43; 12,23</t>
         </is>
       </c>
     </row>
@@ -1356,22 +1357,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1381,17 +1382,17 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1401,17 +1402,17 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>5,48%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,37</t>
+          <t>2,79; 9,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,46; 11,55</t>
+          <t>2,05; 8,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,13; 9,38</t>
+          <t>1,23; 5,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,07; 8,35</t>
+          <t>1,78; 7,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,51</t>
+          <t>2,91; 8,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,36; 12,15</t>
+          <t>2,62; 8,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 13,16</t>
+          <t>2,79; 8,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,78; 13,52</t>
+          <t>4,22; 10,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,44</t>
+          <t>3,31; 7,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,81; 9,73</t>
+          <t>2,93; 7,4</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,97; 9,95</t>
+          <t>2,36; 5,85</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,42; 9,61</t>
+          <t>3,76; 7,97</t>
         </is>
       </c>
     </row>
@@ -1501,17 +1502,17 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1521,17 +1522,17 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1541,17 +1542,17 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>9,4%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,17; 7,68</t>
+          <t>5,24; 7,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,44; 12,88</t>
+          <t>5,61; 8,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,03; 13,68</t>
+          <t>5,78; 8,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,25; 12,2</t>
+          <t>6,69; 9,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,86; 9,49</t>
+          <t>6,99; 9,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,47</t>
+          <t>6,81; 9,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,49; 16,07</t>
+          <t>6,86; 9,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,29; 15,51</t>
+          <t>9,09; 12,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,47; 8,33</t>
+          <t>6,49; 8,25</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,56; 11,8</t>
+          <t>6,61; 8,94</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,86; 14,21</t>
+          <t>6,76; 8,9</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>10,23; 13,2</t>
+          <t>8,33; 10,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1639,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha experimentado cambio de convivientes en sus viviendas (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>34444</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25040</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>56224</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>56485</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>47406</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>53222</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>80161</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>99650</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>81850</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>78262</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>136385</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>156135</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>18167; 57855</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10528; 50341</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>30879; 96842</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>28236; 94171</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>29908; 72914</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>32724; 86692</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>52913; 112562</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>68869; 137443</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>53307; 113456</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>48801; 114624</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>98702; 190166</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>116541; 211337</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>50765</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>72849</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>65826</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>83813</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>31095</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>45793</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>43126</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>65482</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>81860</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>118642</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>108952</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>149296</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>30501; 76315</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>45149; 120752</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>42892; 96900</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>55840; 117704</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>16813; 50764</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>27238; 71196</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>25573; 62740</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>45881; 94414</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>57845; 115716</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>84753; 177170</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>78426; 144418</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>116124; 189128</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26446</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>35893</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>46014</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>46093</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>39975</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>39097</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>28104</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>41131</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>66420</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>74990</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>74118</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>87224</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13373; 44769</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20249; 61295</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>28930; 70283</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>27613; 70259</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>24936; 62501</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>23728; 63770</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17105; 46618</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26399; 62150</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>45617; 93988</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>52411; 103688</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>52469; 102259</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>64371; 120862</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>34881</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>36239</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>37901</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>42097</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>89057</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>73542</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>63258</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>65112</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>123938</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>109781</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>101159</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>107208</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>21080; 57365</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>21897; 57977</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>23347; 57036</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>27044; 63011</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>68510; 116937</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>53672; 99719</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>46480; 85902</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>48251; 86455</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>94650; 155577</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>81788; 143584</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>77267; 128092</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>82540; 134233</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>45011</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>45333</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>26842</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>31886</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>51903</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>51090</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>51808</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>65010</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>96914</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>96423</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>78650</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>96896</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>29268; 65928</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>29074; 70064</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>16040; 43060</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>20245; 49747</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>34459; 74979</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>34262; 76819</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>34334; 73719</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>45485; 88012</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>69453; 124527</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>70203; 126914</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>58839; 106164</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>74944; 123392</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>28952</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>24221</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>15635</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>20781</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>36840</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>36887</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>32657</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>46294</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>65791</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>61108</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>48291</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>67075</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>15264; 50876</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>11200; 43904</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6525; 29671</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>9487; 39828</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>21300; 62265</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>18780; 63766</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>19409; 56207</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>29253; 72366</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>42356; 95731</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>36943; 93450</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>28884; 71556</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>46084; 97689</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>220498</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>239575</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>248441</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>281155</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>296275</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>299630</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>299113</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>382679</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>516772</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>539205</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>547554</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>663834</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>180886; 274925</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>193589; 308031</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>199549; 305433</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>230930; 340510</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>252351; 352193</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>246138; 360749</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>247821; 354064</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>328290; 451460</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>458381; 582503</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>466803; 631358</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>477340; 628432</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>588125; 754528</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>